--- a/RemoteYearBot/SampleData_RealAnon2020/forBot_FacultyAvailabilityMatrix.xlsx
+++ b/RemoteYearBot/SampleData_RealAnon2020/forBot_FacultyAvailabilityMatrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/github/interviewScheduler/SampleData_RealAnon2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/github/interviewScheduler/RemoteYearBot/SampleData_RealAnon2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD7AF21-B9DE-3843-8148-48BFD16857D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C1FD99-929B-D944-99E2-4498D3643FE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="67940" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20100" yWindow="580" windowWidth="45560" windowHeight="15320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="168">
   <si>
     <t>Scott Atwood</t>
   </si>
@@ -94,39 +94,6 @@
     <t>Jack Xin</t>
   </si>
   <si>
-    <t>Monday, Feb. 10 1:00 - 1:30</t>
-  </si>
-  <si>
-    <t>Monday, Feb. 10 1:45 - 2:15</t>
-  </si>
-  <si>
-    <t>Monday, Feb. 10 2:30 - 3:00</t>
-  </si>
-  <si>
-    <t>Monday, Feb. 10 3:15 - 3:45</t>
-  </si>
-  <si>
-    <t>Monday, Feb. 10 4:00 - 4:30</t>
-  </si>
-  <si>
-    <t>Monday, Feb. 10 4:45 - 5:15</t>
-  </si>
-  <si>
-    <t>Tuesday, Feb. 11 1:00 - 1:30</t>
-  </si>
-  <si>
-    <t>Tuesday, Feb. 11 1:45 - 2:15</t>
-  </si>
-  <si>
-    <t>Tuesday, Feb. 11 2:30 - 3:00</t>
-  </si>
-  <si>
-    <t>Tuesday, Feb. 11 3:15 - 3:45</t>
-  </si>
-  <si>
-    <t>Tuesday, Feb. 11 3:45 - 4:15</t>
-  </si>
-  <si>
     <t>Marcus Seldin</t>
   </si>
   <si>
@@ -202,30 +169,6 @@
     <t>Joyce Keyak</t>
   </si>
   <si>
-    <t>440 F Rowland Hall #949/824-1954</t>
-  </si>
-  <si>
-    <t>3108 BioSci 3 #949/824-2341</t>
-  </si>
-  <si>
-    <t>4238 McGaugh Hall #949/824-4346</t>
-  </si>
-  <si>
-    <t>2208 NatSci 1 #949/824-6902</t>
-  </si>
-  <si>
-    <t>4103 NatSci 2 #949/824-8573</t>
-  </si>
-  <si>
-    <t>3111 NatSci 2 #949/824-2471</t>
-  </si>
-  <si>
-    <t>2408 Engineering 3 #949/824-8744</t>
-  </si>
-  <si>
-    <t>4111 NatSci 2 #949/824-3086</t>
-  </si>
-  <si>
     <t>W</t>
   </si>
   <si>
@@ -235,60 +178,12 @@
     <t>Lee Bardwell</t>
   </si>
   <si>
-    <t>463 Steinhaus Hall #949/824-2061</t>
-  </si>
-  <si>
-    <t>3102 BioSci 3 #949/824-2244</t>
-  </si>
-  <si>
-    <t>2418 Engineering 3 #949/824-3211</t>
-  </si>
-  <si>
-    <t>4092 Bren Hall #949/824-1753</t>
-  </si>
-  <si>
-    <t>2600 BioSci 3 #949/824-1721</t>
-  </si>
-  <si>
     <t>Arthur Lander</t>
   </si>
   <si>
-    <t>112 Sprague Hall #949/824-2991</t>
-  </si>
-  <si>
-    <t>3105 NatSci 2 #949/824-8534</t>
-  </si>
-  <si>
-    <t>540 H Rowland Hall #949/824-8456</t>
-  </si>
-  <si>
-    <t>2216 BioSci 3 #949/824-3078</t>
-  </si>
-  <si>
-    <t>5232 McGaugh Hall #949/302-7325</t>
-  </si>
-  <si>
     <t>Ali Mortazavi</t>
   </si>
   <si>
-    <t>2218 BioSci 3 #949/824-6762</t>
-  </si>
-  <si>
-    <t>540F Rowland Hall #949/824-5530</t>
-  </si>
-  <si>
-    <t>1107 NatSci 2 #949/824-9942</t>
-  </si>
-  <si>
-    <t>456 Steinhaus Hall #949/824-9071</t>
-  </si>
-  <si>
-    <t>4109 NatSci 2 #949/824-2479</t>
-  </si>
-  <si>
-    <t>314 Sprague Hall #949/824-6765</t>
-  </si>
-  <si>
     <t>Jose Ranz</t>
   </si>
   <si>
@@ -298,51 +193,18 @@
     <t>Albert Siryaporn</t>
   </si>
   <si>
-    <t>210C Rowland Hall #949/824-5141</t>
-  </si>
-  <si>
-    <t>540 G Rowland Hall #949/824-3154</t>
-  </si>
-  <si>
     <t>Vivek Swarup</t>
   </si>
   <si>
-    <t>3224 BioSci 3 #949/824-3182</t>
-  </si>
-  <si>
-    <t>3110 BioSci 3 #949/824-3120</t>
-  </si>
-  <si>
-    <t>3036 Hewitt Hall #949/824-6150</t>
-  </si>
-  <si>
     <t>Katrine Whiteson</t>
   </si>
   <si>
-    <t>3236 McGaugh Hall #949/824-9032</t>
-  </si>
-  <si>
     <t>Dominik Wodarz</t>
   </si>
   <si>
-    <t>2072 AIRB #949/824-2531</t>
-  </si>
-  <si>
     <t>Zeba Wunderlich</t>
   </si>
   <si>
-    <t>4107 NatSci 2 #949/824-5959</t>
-  </si>
-  <si>
-    <t>540E Rowland Hall #949/824-5309</t>
-  </si>
-  <si>
-    <t>H128 Hitachi Bldg #949/824-8215</t>
-  </si>
-  <si>
-    <t>220B Rowland Hall #949/824-2177</t>
-  </si>
-  <si>
     <t>Enciso</t>
   </si>
   <si>
@@ -427,68 +289,266 @@
     <t>Ray Luo</t>
   </si>
   <si>
-    <t>5207 McGaugh Hall #949/824-6039</t>
-  </si>
-  <si>
     <t>Medha Pathak</t>
   </si>
   <si>
-    <t>3026 Gross Hall #949/824-6623</t>
-  </si>
-  <si>
-    <t>210 E Rowland Hall #949/824-6216</t>
-  </si>
-  <si>
     <t>Kavita Arora</t>
   </si>
   <si>
-    <t>4215 McGaugh Hall #949/824-1087</t>
-  </si>
-  <si>
-    <t>5221 McGaugh Hall #949/824-0614</t>
-  </si>
-  <si>
     <t>Marian Waterman</t>
   </si>
   <si>
-    <t>224 Sprague Hall #949/824-2885</t>
-  </si>
-  <si>
     <t>Kevin Beier</t>
   </si>
   <si>
-    <t>MedSci1 - D335 #949/824-1083</t>
-  </si>
-  <si>
     <t>Reginald McNulty</t>
   </si>
   <si>
-    <t>4124 NatSci 1 #949/824-7347</t>
-  </si>
-  <si>
     <t>Maksim Plikus</t>
   </si>
   <si>
-    <t>3018 Gross Hall #949/824-1260</t>
-  </si>
-  <si>
     <t>J. J. Emerson</t>
   </si>
   <si>
-    <t>5230 McGaugh Hall #949/824-9527</t>
-  </si>
-  <si>
     <t>Anne Calof</t>
   </si>
   <si>
-    <t>2206 BioSci 3 #949/824-4616</t>
+    <t>Wednesday, Feb 10th, 12:00-12:30</t>
+  </si>
+  <si>
+    <t>Wednesday, Feb 10th, 12:30-1:00</t>
+  </si>
+  <si>
+    <t>Wednesday, Feb 10th, 1:00-1:30</t>
+  </si>
+  <si>
+    <t>Wednesday, Feb 10th, 1:30-2:00</t>
+  </si>
+  <si>
+    <t>Wednesday, Feb 10th, 2:00-2:30</t>
+  </si>
+  <si>
+    <t>Wednesday, Feb 10th, 2:30-3:00</t>
+  </si>
+  <si>
+    <t>Wednesday, Feb 10th, 3:00-3:30</t>
+  </si>
+  <si>
+    <t>Wednesday, Feb 10th, 3:30-4:00</t>
+  </si>
+  <si>
+    <t>Thursday, Feb 11th, 12:00-12:30</t>
+  </si>
+  <si>
+    <t>Thursday, Feb 11th, 12:30-1:00</t>
+  </si>
+  <si>
+    <t>Thursday, Feb 11th 1:00-1:30</t>
+  </si>
+  <si>
+    <t>Thursday, Feb 11th, 1:30-2:00</t>
+  </si>
+  <si>
+    <t>Thursday, Feb 11th, 2:00-2:30</t>
+  </si>
+  <si>
+    <t>Thursday, Feb 11th, 2:30-3:00</t>
+  </si>
+  <si>
+    <t>Thursday, Feb 11th, 3:00-3:30</t>
+  </si>
+  <si>
+    <t>Thursday, Feb 11th, 3:30-4:00</t>
+  </si>
+  <si>
+    <t>Wednesday, Feb 10th, 4:00-4:30</t>
+  </si>
+  <si>
+    <t>Wednesday, Feb 10th,4:30-5:00</t>
+  </si>
+  <si>
+    <t>Thursday, Feb 11th, 4:00-4:30</t>
+  </si>
+  <si>
+    <t>Thursday, Feb 11th,4:30-5:00</t>
+  </si>
+  <si>
+    <t>Thursday, Feb 11th, 7:00pm-7:30pm</t>
+  </si>
+  <si>
+    <t>Thursday, Feb 11th, 8:30pm-9pm</t>
+  </si>
+  <si>
+    <t>Thursday, Feb 11th, 8:00pm-8:30pm</t>
+  </si>
+  <si>
+    <t>Thursday, Feb 11th, 7:30pm-8:00pm</t>
+  </si>
+  <si>
+    <t>Friday, Feb 12th, 12:00-12:30</t>
+  </si>
+  <si>
+    <t>Friday, Feb 12th, 12:30-1:00</t>
+  </si>
+  <si>
+    <t>Friday, Feb 12th 1:00-1:30</t>
+  </si>
+  <si>
+    <t>Friday, Feb 12th, 1:30-2:00</t>
+  </si>
+  <si>
+    <t>Friday, Feb 12th, 2:00-2:30</t>
+  </si>
+  <si>
+    <t>Friday, Feb 12th, 2:30-3:00</t>
+  </si>
+  <si>
+    <t>Friday, Feb 12th, 3:00-3:30</t>
+  </si>
+  <si>
+    <t>Friday, Feb 12th, 3:30-4:00</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456789</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456790</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456791</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456792</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456793</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456794</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456795</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456796</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456797</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456798</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456799</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456800</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456801</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456802</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456803</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456804</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456805</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456806</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456807</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456808</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456809</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456810</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456811</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456812</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456813</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456814</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456815</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456816</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456817</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456818</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456819</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456820</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456821</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456822</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456823</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456824</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456825</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456826</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456827</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456828</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456829</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456830</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456831</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456832</t>
+  </si>
+  <si>
+    <t>Zoom room: 123456833</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -551,6 +611,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -623,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -698,9 +764,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -712,9 +775,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1035,11 +1095,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW14"/>
+  <dimension ref="A1:AW35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A13" sqref="A13:XFD13"/>
+      <selection pane="topRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1087,455 +1147,447 @@
   <sheetData>
     <row r="1" spans="1:49" ht="32" x14ac:dyDescent="0.2">
       <c r="B1" s="23" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="O1" s="22" t="s">
         <v>4</v>
       </c>
       <c r="P1" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="S1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="S1" s="24" t="s">
-        <v>43</v>
-      </c>
       <c r="T1" s="25" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="U1" s="22" t="s">
         <v>9</v>
       </c>
       <c r="V1" s="22" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="W1" s="22" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="X1" s="22" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="Y1" s="22" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="Z1" s="22" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="AA1" s="22" t="s">
         <v>11</v>
       </c>
       <c r="AB1" s="22" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="AC1" s="22" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="AD1" s="22" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="AE1" s="22" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="AF1" s="22" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="AG1" s="22" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="AH1" s="22" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="AI1" s="22" t="s">
         <v>14</v>
       </c>
       <c r="AJ1" s="22" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="AK1" s="22" t="s">
         <v>15</v>
       </c>
       <c r="AL1" s="25" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="AM1" s="25" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AN1" s="25" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="AO1" s="22" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="AP1" s="22" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="AQ1" s="22" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="AR1" s="22" t="s">
         <v>17</v>
       </c>
       <c r="AS1" s="22" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="AT1" s="22" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="AU1" s="22" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="AV1" s="18"/>
       <c r="AW1" s="18"/>
     </row>
     <row r="2" spans="1:49" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="26" t="s">
+      <c r="B2" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="N2" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="26" t="s">
+      <c r="O2" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="S2" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="H2" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="26" t="s">
+      <c r="T2" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="U2" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="V2" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="W2" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="X2" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y2" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z2" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA2" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="J2" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="M2" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="N2" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="O2" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="P2" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q2" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="R2" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="S2" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="T2" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="U2" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="V2" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="W2" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="X2" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y2" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z2" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA2" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB2" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC2" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD2" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE2" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF2" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG2" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH2" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI2" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ2" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK2" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL2" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM2" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN2" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="AO2" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP2" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ2" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR2" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS2" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT2" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU2" s="26" t="s">
-        <v>100</v>
+      <c r="AB2" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC2" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD2" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE2" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF2" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG2" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH2" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI2" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ2" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK2" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL2" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="AM2" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN2" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO2" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP2" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="AQ2" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="AR2" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS2" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT2" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="AU2" s="27" t="s">
+        <v>167</v>
       </c>
       <c r="AV2" s="18"/>
       <c r="AW2" s="18"/>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="27">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
+      <c r="A3" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
       <c r="H3" s="18"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="13">
-        <v>1</v>
-      </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="15">
-        <v>1</v>
-      </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="3">
-        <v>1</v>
-      </c>
-      <c r="W3" s="20"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
+      <c r="I3" s="17">
+        <v>1</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="17">
+        <v>1</v>
+      </c>
+      <c r="O3" s="18"/>
+      <c r="P3" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="17">
+        <v>1</v>
+      </c>
+      <c r="T3" s="17">
+        <v>1</v>
+      </c>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="17">
+        <v>1</v>
+      </c>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="17">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="17">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="17">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="17">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="18"/>
       <c r="AS3" s="17">
         <v>1</v>
       </c>
-      <c r="AT3" s="33"/>
-      <c r="AU3" s="3">
-        <v>1</v>
-      </c>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="18"/>
+      <c r="AT3" s="17">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+        <v>91</v>
+      </c>
+      <c r="B4" s="26">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
         <v>1</v>
       </c>
       <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="14">
-        <v>1</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="11">
-        <v>1</v>
-      </c>
-      <c r="R4" s="2"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="13">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="15">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3"/>
       <c r="S4" s="18"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="2">
+      <c r="T4" s="3"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="3">
         <v>1</v>
       </c>
       <c r="W4" s="20"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="12">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="2">
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3">
         <v>1</v>
       </c>
       <c r="AH4" s="12"/>
       <c r="AI4" s="2"/>
-      <c r="AJ4" s="6"/>
-      <c r="AK4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="2"/>
-      <c r="AP4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
       <c r="AS4" s="17">
         <v>1</v>
       </c>
-      <c r="AT4" s="17"/>
-      <c r="AU4" s="2">
+      <c r="AT4" s="31"/>
+      <c r="AU4" s="3">
         <v>1</v>
       </c>
       <c r="AV4" s="18"/>
@@ -1543,7 +1595,7 @@
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -1557,11 +1609,11 @@
       <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="17">
-        <v>1</v>
-      </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="2"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="14">
@@ -1573,9 +1625,7 @@
       <c r="Q5" s="11">
         <v>1</v>
       </c>
-      <c r="R5" s="2">
-        <v>1</v>
-      </c>
+      <c r="R5" s="2"/>
       <c r="S5" s="18"/>
       <c r="T5" s="2"/>
       <c r="U5" s="12"/>
@@ -1587,9 +1637,7 @@
       <c r="Y5" s="2">
         <v>1</v>
       </c>
-      <c r="Z5" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2">
@@ -1609,13 +1657,11 @@
       </c>
       <c r="AH5" s="12"/>
       <c r="AI5" s="2"/>
-      <c r="AJ5" s="12">
-        <v>1</v>
-      </c>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="2"/>
       <c r="AM5" s="2">
         <v>1</v>
       </c>
@@ -1624,9 +1670,7 @@
       <c r="AP5" s="2">
         <v>1</v>
       </c>
-      <c r="AQ5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
       <c r="AS5" s="17">
         <v>1</v>
@@ -1640,16 +1684,20 @@
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
       <c r="H6" s="17">
         <v>1</v>
       </c>
@@ -1657,7 +1705,9 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="14"/>
+      <c r="M6" s="14">
+        <v>1</v>
+      </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -1668,22 +1718,24 @@
         <v>1</v>
       </c>
       <c r="S6" s="18"/>
-      <c r="T6" s="2">
-        <v>1</v>
-      </c>
-      <c r="U6" s="8"/>
-      <c r="V6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="2">
+        <v>1</v>
+      </c>
       <c r="W6" s="20"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
       <c r="Z6" s="2">
         <v>1</v>
       </c>
-      <c r="AA6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
+      <c r="AC6" s="2">
+        <v>1</v>
+      </c>
       <c r="AD6" s="2">
         <v>1</v>
       </c>
@@ -1697,28 +1749,26 @@
         <v>1</v>
       </c>
       <c r="AH6" s="12"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="12"/>
       <c r="AL6" s="2">
         <v>1</v>
       </c>
       <c r="AM6" s="2">
         <v>1</v>
       </c>
-      <c r="AN6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AN6" s="2"/>
       <c r="AO6" s="2"/>
-      <c r="AP6" s="2"/>
+      <c r="AP6" s="2">
+        <v>1</v>
+      </c>
       <c r="AQ6" s="2">
         <v>1</v>
       </c>
-      <c r="AR6" s="12">
-        <v>1</v>
-      </c>
+      <c r="AR6" s="2"/>
       <c r="AS6" s="17">
         <v>1</v>
       </c>
@@ -1731,18 +1781,20 @@
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="6"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+      <c r="H7" s="17">
+        <v>1</v>
+      </c>
+      <c r="I7" s="17"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -1753,12 +1805,14 @@
       <c r="Q7" s="11">
         <v>1</v>
       </c>
-      <c r="R7" s="2"/>
+      <c r="R7" s="2">
+        <v>1</v>
+      </c>
       <c r="S7" s="18"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="11">
-        <v>1</v>
-      </c>
+      <c r="T7" s="2">
+        <v>1</v>
+      </c>
+      <c r="U7" s="8"/>
       <c r="V7" s="2"/>
       <c r="W7" s="20"/>
       <c r="X7" s="2"/>
@@ -1766,13 +1820,17 @@
       <c r="Z7" s="2">
         <v>1</v>
       </c>
-      <c r="AA7" s="2"/>
+      <c r="AA7" s="2">
+        <v>1</v>
+      </c>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2">
         <v>1</v>
       </c>
-      <c r="AE7" s="2"/>
+      <c r="AE7" s="12">
+        <v>1</v>
+      </c>
       <c r="AF7" s="2">
         <v>1</v>
       </c>
@@ -1780,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="AH7" s="12"/>
-      <c r="AI7" s="2"/>
+      <c r="AI7" s="7"/>
       <c r="AJ7" s="2">
         <v>1</v>
       </c>
@@ -1791,12 +1849,14 @@
       <c r="AM7" s="2">
         <v>1</v>
       </c>
-      <c r="AN7" s="2"/>
-      <c r="AO7" s="12">
-        <v>1</v>
-      </c>
+      <c r="AN7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
-      <c r="AQ7" s="2"/>
+      <c r="AQ7" s="2">
+        <v>1</v>
+      </c>
       <c r="AR7" s="12">
         <v>1</v>
       </c>
@@ -1812,14 +1872,14 @@
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="18"/>
@@ -1827,7 +1887,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="10"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -1836,28 +1896,28 @@
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="18"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="12">
-        <v>1</v>
-      </c>
-      <c r="V8" s="4"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="11">
+        <v>1</v>
+      </c>
+      <c r="V8" s="2"/>
       <c r="W8" s="20"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="12">
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2">
         <v>1</v>
       </c>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
-      <c r="AD8" s="11">
+      <c r="AD8" s="2">
         <v>1</v>
       </c>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2">
         <v>1</v>
       </c>
-      <c r="AG8" s="11">
+      <c r="AG8" s="2">
         <v>1</v>
       </c>
       <c r="AH8" s="12"/>
@@ -1866,20 +1926,26 @@
         <v>1</v>
       </c>
       <c r="AK8" s="2"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="11">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="11"/>
-      <c r="AO8" s="2"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="11"/>
-      <c r="AR8" s="4"/>
+      <c r="AL8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="12">
+        <v>1</v>
+      </c>
       <c r="AS8" s="17">
         <v>1</v>
       </c>
       <c r="AT8" s="17"/>
-      <c r="AU8" s="11">
+      <c r="AU8" s="2">
         <v>1</v>
       </c>
       <c r="AV8" s="18"/>
@@ -1887,98 +1953,74 @@
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="2">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="14">
-        <v>1</v>
-      </c>
-      <c r="N9" s="19">
-        <v>1</v>
-      </c>
-      <c r="O9" s="2">
-        <v>1</v>
-      </c>
-      <c r="P9" s="2">
-        <v>1</v>
-      </c>
+      <c r="M9" s="10"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
       <c r="Q9" s="11">
         <v>1</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" s="18"/>
-      <c r="T9" s="2"/>
+      <c r="T9" s="11"/>
       <c r="U9" s="12">
         <v>1</v>
       </c>
-      <c r="V9" s="2">
-        <v>1</v>
-      </c>
-      <c r="W9" s="9">
-        <v>1</v>
-      </c>
-      <c r="X9" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="12">
+        <v>1</v>
+      </c>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
-      <c r="AC9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="2">
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="11">
         <v>1</v>
       </c>
       <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2">
+      <c r="AF9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="11">
         <v>1</v>
       </c>
       <c r="AH9" s="12"/>
-      <c r="AI9" s="6"/>
-      <c r="AJ9" s="2"/>
-      <c r="AK9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL9" s="2"/>
-      <c r="AM9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN9" s="2"/>
-      <c r="AO9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ9" s="2"/>
-      <c r="AR9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="11">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="4"/>
       <c r="AS9" s="17">
         <v>1</v>
       </c>
-      <c r="AT9" s="17">
-        <v>1</v>
-      </c>
-      <c r="AU9" s="2">
+      <c r="AT9" s="17"/>
+      <c r="AU9" s="11">
         <v>1</v>
       </c>
       <c r="AV9" s="18"/>
@@ -1986,7 +2028,7 @@
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -1999,9 +2041,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="17">
-        <v>1</v>
-      </c>
+      <c r="I10" s="18"/>
       <c r="J10" s="2">
         <v>1</v>
       </c>
@@ -2012,48 +2052,50 @@
       <c r="M10" s="14">
         <v>1</v>
       </c>
-      <c r="N10" s="2"/>
+      <c r="N10" s="19">
+        <v>1</v>
+      </c>
       <c r="O10" s="2">
         <v>1</v>
       </c>
       <c r="P10" s="2">
         <v>1</v>
       </c>
-      <c r="Q10" s="11"/>
+      <c r="Q10" s="11">
+        <v>1</v>
+      </c>
       <c r="R10" s="2"/>
       <c r="S10" s="18"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="12"/>
+      <c r="U10" s="12">
+        <v>1</v>
+      </c>
       <c r="V10" s="2">
         <v>1</v>
       </c>
-      <c r="W10" s="11">
+      <c r="W10" s="9">
         <v>1</v>
       </c>
       <c r="X10" s="2">
         <v>1</v>
       </c>
-      <c r="Y10" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2">
         <v>1</v>
       </c>
-      <c r="AD10" s="2"/>
+      <c r="AD10" s="2">
+        <v>1</v>
+      </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2">
         <v>1</v>
       </c>
-      <c r="AH10" s="12">
-        <v>1</v>
-      </c>
-      <c r="AI10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="6"/>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2">
         <v>1</v>
@@ -2085,46 +2127,42 @@
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2">
         <v>1</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>1</v>
-      </c>
+      <c r="G11" s="2"/>
       <c r="H11" s="18"/>
       <c r="I11" s="17">
         <v>1</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
       <c r="K11" s="2">
         <v>1</v>
       </c>
-      <c r="L11" s="2">
-        <v>1</v>
-      </c>
+      <c r="L11" s="2"/>
       <c r="M11" s="14">
         <v>1</v>
       </c>
       <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
       <c r="P11" s="2">
         <v>1</v>
       </c>
       <c r="Q11" s="11"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="2">
-        <v>1</v>
-      </c>
+      <c r="S11" s="18"/>
       <c r="T11" s="2"/>
       <c r="U11" s="12"/>
       <c r="V11" s="2">
@@ -2139,14 +2177,12 @@
       <c r="Y11" s="2">
         <v>1</v>
       </c>
-      <c r="Z11" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
-      <c r="AB11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2">
+        <v>1</v>
+      </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
@@ -2159,18 +2195,18 @@
       <c r="AI11" s="2">
         <v>1</v>
       </c>
-      <c r="AJ11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK11" s="2"/>
-      <c r="AL11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="2"/>
       <c r="AM11" s="2">
         <v>1</v>
       </c>
       <c r="AN11" s="2"/>
-      <c r="AO11" s="2"/>
+      <c r="AO11" s="2">
+        <v>1</v>
+      </c>
       <c r="AP11" s="2">
         <v>1</v>
       </c>
@@ -2190,101 +2226,97 @@
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1</v>
-      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="18"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="2"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
       <c r="K12" s="2">
         <v>1</v>
       </c>
-      <c r="L12" s="2">
-        <v>1</v>
-      </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="2">
-        <v>1</v>
-      </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="11"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="14">
+        <v>1</v>
+      </c>
+      <c r="N12" s="19">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>1</v>
+      </c>
       <c r="R12" s="2"/>
-      <c r="S12" s="2">
-        <v>1</v>
-      </c>
-      <c r="T12" s="2">
-        <v>1</v>
-      </c>
-      <c r="U12" s="12"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="12">
+        <v>1</v>
+      </c>
       <c r="V12" s="2">
         <v>1</v>
       </c>
-      <c r="W12" s="11">
+      <c r="W12" s="9">
         <v>1</v>
       </c>
       <c r="X12" s="2">
         <v>1</v>
       </c>
-      <c r="Y12" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="12">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="12">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>1</v>
+      </c>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2">
         <v>1</v>
       </c>
-      <c r="AH12" s="12">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="12">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK12" s="2"/>
-      <c r="AL12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="2"/>
       <c r="AM12" s="2">
         <v>1</v>
       </c>
       <c r="AN12" s="2"/>
-      <c r="AO12" s="2"/>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
+      <c r="AO12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="2"/>
       <c r="AR12" s="2"/>
       <c r="AS12" s="17">
         <v>1</v>
       </c>
-      <c r="AT12" s="17"/>
+      <c r="AT12" s="17">
+        <v>1</v>
+      </c>
       <c r="AU12" s="2">
         <v>1</v>
       </c>
@@ -2293,169 +2325,2127 @@
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="18"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="I13" s="17">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
       <c r="L13" s="2"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="3">
-        <v>1</v>
-      </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="11">
-        <v>1</v>
-      </c>
+      <c r="M13" s="14">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="11"/>
       <c r="R13" s="2"/>
       <c r="S13" s="18"/>
-      <c r="T13" s="11">
-        <v>1</v>
-      </c>
+      <c r="T13" s="2"/>
       <c r="U13" s="12"/>
-      <c r="V13" s="4"/>
+      <c r="V13" s="2">
+        <v>1</v>
+      </c>
       <c r="W13" s="11">
         <v>1</v>
       </c>
-      <c r="X13" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="12">
-        <v>1</v>
-      </c>
+      <c r="X13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
+      <c r="AC13" s="2">
+        <v>1</v>
+      </c>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2">
         <v>1</v>
       </c>
-      <c r="AH13" s="12"/>
+      <c r="AH13" s="12">
+        <v>1</v>
+      </c>
       <c r="AI13" s="2">
         <v>1</v>
       </c>
-      <c r="AJ13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK13" s="2"/>
-      <c r="AL13" s="11">
-        <v>1</v>
-      </c>
-      <c r="AM13" s="11">
-        <v>1</v>
-      </c>
-      <c r="AN13" s="11"/>
-      <c r="AO13" s="2"/>
-      <c r="AP13" s="4"/>
-      <c r="AQ13" s="4"/>
-      <c r="AR13" s="4"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
       <c r="AS13" s="17">
         <v>1</v>
       </c>
-      <c r="AT13" s="17"/>
-      <c r="AU13" s="11">
+      <c r="AT13" s="17">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="2">
         <v>1</v>
       </c>
       <c r="AV13" s="18"/>
       <c r="AW13" s="18"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="17">
-        <v>1</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="A14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="26">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
       <c r="H14" s="18"/>
-      <c r="I14" s="17">
-        <v>1</v>
-      </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="17">
-        <v>1</v>
-      </c>
-      <c r="O14" s="18"/>
-      <c r="P14" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="17">
-        <v>1</v>
-      </c>
-      <c r="T14" s="17">
-        <v>1</v>
-      </c>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="17">
-        <v>1</v>
-      </c>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="17">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="18"/>
-      <c r="AE14" s="18"/>
-      <c r="AF14" s="18"/>
-      <c r="AG14" s="18"/>
-      <c r="AH14" s="18"/>
-      <c r="AI14" s="18"/>
-      <c r="AJ14" s="18"/>
-      <c r="AK14" s="18"/>
-      <c r="AL14" s="17">
-        <v>1</v>
-      </c>
-      <c r="AM14" s="18"/>
-      <c r="AN14" s="17">
-        <v>1</v>
-      </c>
-      <c r="AO14" s="17">
-        <v>1</v>
-      </c>
-      <c r="AP14" s="18"/>
-      <c r="AQ14" s="17">
-        <v>1</v>
-      </c>
-      <c r="AR14" s="18"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="13">
+        <v>1</v>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="15">
+        <v>1</v>
+      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="3">
+        <v>1</v>
+      </c>
+      <c r="W14" s="20"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
       <c r="AS14" s="17">
         <v>1</v>
       </c>
-      <c r="AT14" s="17">
-        <v>1</v>
-      </c>
-      <c r="AU14" s="17">
-        <v>1</v>
-      </c>
+      <c r="AT14" s="31"/>
+      <c r="AU14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV14" s="18"/>
+      <c r="AW14" s="18"/>
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="14">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="11">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="2">
+        <v>1</v>
+      </c>
+      <c r="W15" s="20"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="17">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="17"/>
+      <c r="AU15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV15" s="18"/>
+      <c r="AW15" s="18"/>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="17">
+        <v>1</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="14">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="11">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2">
+        <v>1</v>
+      </c>
+      <c r="S16" s="18"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="2">
+        <v>1</v>
+      </c>
+      <c r="W16" s="20"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="17">
+        <v>1</v>
+      </c>
+      <c r="AT16" s="17"/>
+      <c r="AU16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV16" s="18"/>
+      <c r="AW16" s="18"/>
+    </row>
+    <row r="17" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="17">
+        <v>1</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="11">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2">
+        <v>1</v>
+      </c>
+      <c r="S17" s="18"/>
+      <c r="T17" s="2">
+        <v>1</v>
+      </c>
+      <c r="U17" s="8"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="7"/>
+      <c r="AJ17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR17" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS17" s="17">
+        <v>1</v>
+      </c>
+      <c r="AT17" s="17"/>
+      <c r="AU17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV17" s="18"/>
+      <c r="AW17" s="18"/>
+    </row>
+    <row r="18" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="11">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="11">
+        <v>1</v>
+      </c>
+      <c r="V18" s="2"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS18" s="17">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="17"/>
+      <c r="AU18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="18"/>
+      <c r="AW18" s="18"/>
+    </row>
+    <row r="19" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="11">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="12">
+        <v>1</v>
+      </c>
+      <c r="V19" s="4"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="11">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="11">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="11"/>
+      <c r="AR19" s="4"/>
+      <c r="AS19" s="17">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="17"/>
+      <c r="AU19" s="11">
+        <v>1</v>
+      </c>
+      <c r="AV19" s="18"/>
+      <c r="AW19" s="18"/>
+    </row>
+    <row r="20" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="14">
+        <v>1</v>
+      </c>
+      <c r="N20" s="19">
+        <v>1</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="12">
+        <v>1</v>
+      </c>
+      <c r="V20" s="2">
+        <v>1</v>
+      </c>
+      <c r="W20" s="9">
+        <v>1</v>
+      </c>
+      <c r="X20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="17">
+        <v>1</v>
+      </c>
+      <c r="AT20" s="17">
+        <v>1</v>
+      </c>
+      <c r="AU20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV20" s="18"/>
+      <c r="AW20" s="18"/>
+    </row>
+    <row r="21" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="17">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="14">
+        <v>1</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2">
+        <v>1</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="2">
+        <v>1</v>
+      </c>
+      <c r="W21" s="11">
+        <v>1</v>
+      </c>
+      <c r="X21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="12">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="17">
+        <v>1</v>
+      </c>
+      <c r="AT21" s="17">
+        <v>1</v>
+      </c>
+      <c r="AU21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV21" s="18"/>
+      <c r="AW21" s="18"/>
+    </row>
+    <row r="22" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2"/>
+      <c r="M22" s="14">
+        <v>1</v>
+      </c>
+      <c r="N22" s="19">
+        <v>1</v>
+      </c>
+      <c r="O22" s="2">
+        <v>1</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>1</v>
+      </c>
+      <c r="R22" s="2"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="12">
+        <v>1</v>
+      </c>
+      <c r="V22" s="2">
+        <v>1</v>
+      </c>
+      <c r="W22" s="9">
+        <v>1</v>
+      </c>
+      <c r="X22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="17">
+        <v>1</v>
+      </c>
+      <c r="AT22" s="17">
+        <v>1</v>
+      </c>
+      <c r="AU22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV22" s="18"/>
+      <c r="AW22" s="18"/>
+    </row>
+    <row r="23" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="17">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="14">
+        <v>1</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2">
+        <v>1</v>
+      </c>
+      <c r="P23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="2">
+        <v>1</v>
+      </c>
+      <c r="W23" s="11">
+        <v>1</v>
+      </c>
+      <c r="X23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="12">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="17">
+        <v>1</v>
+      </c>
+      <c r="AT23" s="17">
+        <v>1</v>
+      </c>
+      <c r="AU23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV23" s="18"/>
+      <c r="AW23" s="18"/>
+    </row>
+    <row r="24" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="14">
+        <v>1</v>
+      </c>
+      <c r="N24" s="19">
+        <v>1</v>
+      </c>
+      <c r="O24" s="2">
+        <v>1</v>
+      </c>
+      <c r="P24" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>1</v>
+      </c>
+      <c r="R24" s="2"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="12">
+        <v>1</v>
+      </c>
+      <c r="V24" s="2">
+        <v>1</v>
+      </c>
+      <c r="W24" s="9">
+        <v>1</v>
+      </c>
+      <c r="X24" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="12"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="17">
+        <v>1</v>
+      </c>
+      <c r="AT24" s="17">
+        <v>1</v>
+      </c>
+      <c r="AU24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV24" s="18"/>
+      <c r="AW24" s="18"/>
+    </row>
+    <row r="25" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="17">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="14">
+        <v>1</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2">
+        <v>1</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="2">
+        <v>1</v>
+      </c>
+      <c r="W25" s="11">
+        <v>1</v>
+      </c>
+      <c r="X25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="12">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="17">
+        <v>1</v>
+      </c>
+      <c r="AT25" s="17">
+        <v>1</v>
+      </c>
+      <c r="AU25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV25" s="18"/>
+      <c r="AW25" s="18"/>
+    </row>
+    <row r="26" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="14">
+        <v>1</v>
+      </c>
+      <c r="N26" s="19">
+        <v>1</v>
+      </c>
+      <c r="O26" s="2">
+        <v>1</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>1</v>
+      </c>
+      <c r="R26" s="2"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="12">
+        <v>1</v>
+      </c>
+      <c r="V26" s="2">
+        <v>1</v>
+      </c>
+      <c r="W26" s="9">
+        <v>1</v>
+      </c>
+      <c r="X26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="2"/>
+      <c r="AS26" s="17">
+        <v>1</v>
+      </c>
+      <c r="AT26" s="17">
+        <v>1</v>
+      </c>
+      <c r="AU26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV26" s="18"/>
+      <c r="AW26" s="18"/>
+    </row>
+    <row r="27" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="17">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="14">
+        <v>1</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2">
+        <v>1</v>
+      </c>
+      <c r="P27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="2">
+        <v>1</v>
+      </c>
+      <c r="W27" s="11">
+        <v>1</v>
+      </c>
+      <c r="X27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="12">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="2"/>
+      <c r="AS27" s="17">
+        <v>1</v>
+      </c>
+      <c r="AT27" s="17">
+        <v>1</v>
+      </c>
+      <c r="AU27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV27" s="18"/>
+      <c r="AW27" s="18"/>
+    </row>
+    <row r="28" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="26">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="18"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="3">
+        <v>1</v>
+      </c>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="13">
+        <v>1</v>
+      </c>
+      <c r="N28" s="5"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="15">
+        <v>1</v>
+      </c>
+      <c r="R28" s="3"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="3">
+        <v>1</v>
+      </c>
+      <c r="W28" s="20"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="17">
+        <v>1</v>
+      </c>
+      <c r="AT28" s="31"/>
+      <c r="AU28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV28" s="18"/>
+      <c r="AW28" s="18"/>
+    </row>
+    <row r="29" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="2">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="14">
+        <v>1</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="11">
+        <v>1</v>
+      </c>
+      <c r="R29" s="2"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="2">
+        <v>1</v>
+      </c>
+      <c r="W29" s="20"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="17">
+        <v>1</v>
+      </c>
+      <c r="AT29" s="17"/>
+      <c r="AU29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV29" s="18"/>
+      <c r="AW29" s="18"/>
+    </row>
+    <row r="30" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="17">
+        <v>1</v>
+      </c>
+      <c r="I30" s="17"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="14">
+        <v>1</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="11">
+        <v>1</v>
+      </c>
+      <c r="R30" s="2">
+        <v>1</v>
+      </c>
+      <c r="S30" s="18"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="2">
+        <v>1</v>
+      </c>
+      <c r="W30" s="20"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK30" s="12"/>
+      <c r="AL30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN30" s="2"/>
+      <c r="AO30" s="2"/>
+      <c r="AP30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR30" s="2"/>
+      <c r="AS30" s="17">
+        <v>1</v>
+      </c>
+      <c r="AT30" s="17"/>
+      <c r="AU30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV30" s="18"/>
+      <c r="AW30" s="18"/>
+    </row>
+    <row r="31" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="17">
+        <v>1</v>
+      </c>
+      <c r="I31" s="17"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="11">
+        <v>1</v>
+      </c>
+      <c r="R31" s="2">
+        <v>1</v>
+      </c>
+      <c r="S31" s="18"/>
+      <c r="T31" s="2">
+        <v>1</v>
+      </c>
+      <c r="U31" s="8"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="12"/>
+      <c r="AI31" s="7"/>
+      <c r="AJ31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="2"/>
+      <c r="AL31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO31" s="2"/>
+      <c r="AP31" s="2"/>
+      <c r="AQ31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR31" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS31" s="17">
+        <v>1</v>
+      </c>
+      <c r="AT31" s="17"/>
+      <c r="AU31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV31" s="18"/>
+      <c r="AW31" s="18"/>
+    </row>
+    <row r="32" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="11">
+        <v>1</v>
+      </c>
+      <c r="R32" s="2"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="11">
+        <v>1</v>
+      </c>
+      <c r="V32" s="2"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="12"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK32" s="2"/>
+      <c r="AL32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN32" s="2"/>
+      <c r="AO32" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP32" s="2"/>
+      <c r="AQ32" s="2"/>
+      <c r="AR32" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS32" s="17">
+        <v>1</v>
+      </c>
+      <c r="AT32" s="17"/>
+      <c r="AU32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV32" s="18"/>
+      <c r="AW32" s="18"/>
+    </row>
+    <row r="33" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="11">
+        <v>1</v>
+      </c>
+      <c r="R33" s="2"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="12">
+        <v>1</v>
+      </c>
+      <c r="V33" s="4"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG33" s="11">
+        <v>1</v>
+      </c>
+      <c r="AH33" s="12"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="4"/>
+      <c r="AM33" s="11">
+        <v>1</v>
+      </c>
+      <c r="AN33" s="11"/>
+      <c r="AO33" s="2"/>
+      <c r="AP33" s="4"/>
+      <c r="AQ33" s="11"/>
+      <c r="AR33" s="4"/>
+      <c r="AS33" s="17">
+        <v>1</v>
+      </c>
+      <c r="AT33" s="17"/>
+      <c r="AU33" s="11">
+        <v>1</v>
+      </c>
+      <c r="AV33" s="18"/>
+      <c r="AW33" s="18"/>
+    </row>
+    <row r="34" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="2">
+        <v>1</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1</v>
+      </c>
+      <c r="L34" s="2"/>
+      <c r="M34" s="14">
+        <v>1</v>
+      </c>
+      <c r="N34" s="19">
+        <v>1</v>
+      </c>
+      <c r="O34" s="2">
+        <v>1</v>
+      </c>
+      <c r="P34" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>1</v>
+      </c>
+      <c r="R34" s="2"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="12">
+        <v>1</v>
+      </c>
+      <c r="V34" s="2">
+        <v>1</v>
+      </c>
+      <c r="W34" s="9">
+        <v>1</v>
+      </c>
+      <c r="X34" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH34" s="12"/>
+      <c r="AI34" s="6"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN34" s="2"/>
+      <c r="AO34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ34" s="2"/>
+      <c r="AR34" s="2"/>
+      <c r="AS34" s="17">
+        <v>1</v>
+      </c>
+      <c r="AT34" s="17">
+        <v>1</v>
+      </c>
+      <c r="AU34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV34" s="18"/>
+      <c r="AW34" s="18"/>
+    </row>
+    <row r="35" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="17">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1</v>
+      </c>
+      <c r="L35" s="2"/>
+      <c r="M35" s="14">
+        <v>1</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2">
+        <v>1</v>
+      </c>
+      <c r="P35" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="2">
+        <v>1</v>
+      </c>
+      <c r="W35" s="11">
+        <v>1</v>
+      </c>
+      <c r="X35" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH35" s="12">
+        <v>1</v>
+      </c>
+      <c r="AI35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL35" s="2"/>
+      <c r="AM35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN35" s="2"/>
+      <c r="AO35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ35" s="2"/>
+      <c r="AR35" s="2"/>
+      <c r="AS35" s="17">
+        <v>1</v>
+      </c>
+      <c r="AT35" s="17">
+        <v>1</v>
+      </c>
+      <c r="AU35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV35" s="18"/>
+      <c r="AW35" s="18"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2476,10 +4466,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2487,27 +4477,27 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I10" s="23" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="L10" t="s">
         <v>12</v>
@@ -2515,10 +4505,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I11" s="22" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="L11" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2531,15 +4521,15 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I13" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="L13" s="32" t="s">
-        <v>102</v>
+        <v>45</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I14" s="22" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="L14" t="s">
         <v>6</v>
@@ -2547,7 +4537,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I15" s="22" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="L15" t="s">
         <v>1</v>
@@ -2555,26 +4545,26 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I16" s="22" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="L16" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I17" s="22" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L17" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I18" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" s="32" t="s">
-        <v>105</v>
+        <v>33</v>
+      </c>
+      <c r="L18" s="30" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="9:12" x14ac:dyDescent="0.2">
@@ -2582,28 +4572,28 @@
         <v>4</v>
       </c>
       <c r="L19" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I20" s="22" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="L20" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I21" s="22" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="L21" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I22" s="22" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="L22" t="s">
         <v>3</v>
@@ -2611,18 +4601,18 @@
     </row>
     <row r="23" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I23" s="24" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="L23" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="9:12" ht="32" x14ac:dyDescent="0.2">
       <c r="I24" s="25" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="L24" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="9:12" x14ac:dyDescent="0.2">
@@ -2635,15 +4625,15 @@
     </row>
     <row r="26" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I26" s="22" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="L26" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I27" s="22" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L27" t="s">
         <v>13</v>
@@ -2651,15 +4641,15 @@
     </row>
     <row r="28" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I28" s="22" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="L28" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I29" s="22" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="L29" t="s">
         <v>7</v>
@@ -2670,47 +4660,47 @@
         <v>11</v>
       </c>
       <c r="L30" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I31" s="22" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L31" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I32" s="22" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="L32" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I33" s="22" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="L33" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I34" s="22" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="L34" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I35" s="22" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="L35" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="9:12" x14ac:dyDescent="0.2">
@@ -2718,20 +4708,20 @@
         <v>14</v>
       </c>
       <c r="L36" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I37" s="22" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="L37" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="9:12" ht="32" x14ac:dyDescent="0.2">
       <c r="I38" s="25" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="L38" t="s">
         <v>5</v>
@@ -2739,23 +4729,23 @@
     </row>
     <row r="39" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I39" s="25" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="L39" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I40" s="22" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="L40" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I41" s="22" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="L41" t="s">
         <v>10</v>
@@ -2763,10 +4753,10 @@
     </row>
     <row r="42" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I42" s="22" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="L42" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="9:12" x14ac:dyDescent="0.2">
@@ -2774,20 +4764,20 @@
         <v>17</v>
       </c>
       <c r="L43" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I44" s="22" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="L44" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I45" s="22" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="L45" t="s">
         <v>15</v>
@@ -2795,17 +4785,17 @@
     </row>
     <row r="46" spans="9:12" x14ac:dyDescent="0.2">
       <c r="L46" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="9:12" x14ac:dyDescent="0.2">
       <c r="L47" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="9:12" x14ac:dyDescent="0.2">
       <c r="L48" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/RemoteYearBot/SampleData_RealAnon2020/forBot_FacultyAvailabilityMatrix.xlsx
+++ b/RemoteYearBot/SampleData_RealAnon2020/forBot_FacultyAvailabilityMatrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/github/interviewScheduler/RemoteYearBot/SampleData_RealAnon2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C1FD99-929B-D944-99E2-4498D3643FE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C9C779-2184-2A48-BFA5-9C12C80980C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20100" yWindow="580" windowWidth="45560" windowHeight="15320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28020" yWindow="460" windowWidth="39720" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="169">
   <si>
     <t>Scott Atwood</t>
   </si>
@@ -542,6 +542,9 @@
   </si>
   <si>
     <t>Zoom room: 123456833</t>
+  </si>
+  <si>
+    <t>Contact</t>
   </si>
 </sst>
 </file>
@@ -1095,11 +1098,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW35"/>
+  <dimension ref="A1:AU35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H10" sqref="H10"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1145,7 +1148,7 @@
     <col min="47" max="47" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" ht="32" x14ac:dyDescent="0.2">
       <c r="B1" s="23" t="s">
         <v>28</v>
       </c>
@@ -1284,10 +1287,11 @@
       <c r="AU1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="AV1" s="18"/>
-      <c r="AW1" s="18"/>
-    </row>
-    <row r="2" spans="1:49" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:47" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
       <c r="B2" s="27" t="s">
         <v>123</v>
       </c>
@@ -1426,10 +1430,8 @@
       <c r="AU2" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-    </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
         <v>43</v>
       </c>
@@ -1510,7 +1512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>91</v>
       </c>
@@ -1590,10 +1592,8 @@
       <c r="AU4" s="3">
         <v>1</v>
       </c>
-      <c r="AV4" s="18"/>
-      <c r="AW4" s="18"/>
-    </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>92</v>
       </c>
@@ -1679,10 +1679,8 @@
       <c r="AU5" s="2">
         <v>1</v>
       </c>
-      <c r="AV5" s="18"/>
-      <c r="AW5" s="18"/>
-    </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>93</v>
       </c>
@@ -1776,10 +1774,8 @@
       <c r="AU6" s="2">
         <v>1</v>
       </c>
-      <c r="AV6" s="18"/>
-      <c r="AW6" s="18"/>
-    </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>94</v>
       </c>
@@ -1867,10 +1863,8 @@
       <c r="AU7" s="2">
         <v>1</v>
       </c>
-      <c r="AV7" s="18"/>
-      <c r="AW7" s="18"/>
-    </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>95</v>
       </c>
@@ -1937,7 +1931,9 @@
         <v>1</v>
       </c>
       <c r="AP8" s="2"/>
-      <c r="AQ8" s="2"/>
+      <c r="AQ8" s="2">
+        <v>1</v>
+      </c>
       <c r="AR8" s="12">
         <v>1</v>
       </c>
@@ -1948,10 +1944,8 @@
       <c r="AU8" s="2">
         <v>1</v>
       </c>
-      <c r="AV8" s="18"/>
-      <c r="AW8" s="18"/>
-    </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>96</v>
       </c>
@@ -2023,10 +2017,8 @@
       <c r="AU9" s="11">
         <v>1</v>
       </c>
-      <c r="AV9" s="18"/>
-      <c r="AW9" s="18"/>
-    </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>97</v>
       </c>
@@ -2122,10 +2114,8 @@
       <c r="AU10" s="2">
         <v>1</v>
       </c>
-      <c r="AV10" s="18"/>
-      <c r="AW10" s="18"/>
-    </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>98</v>
       </c>
@@ -2221,10 +2211,8 @@
       <c r="AU11" s="2">
         <v>1</v>
       </c>
-      <c r="AV11" s="18"/>
-      <c r="AW11" s="18"/>
-    </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>107</v>
       </c>
@@ -2320,10 +2308,8 @@
       <c r="AU12" s="2">
         <v>1</v>
       </c>
-      <c r="AV12" s="18"/>
-      <c r="AW12" s="18"/>
-    </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>108</v>
       </c>
@@ -2419,10 +2405,8 @@
       <c r="AU13" s="2">
         <v>1</v>
       </c>
-      <c r="AV13" s="18"/>
-      <c r="AW13" s="18"/>
-    </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>99</v>
       </c>
@@ -2502,10 +2486,8 @@
       <c r="AU14" s="3">
         <v>1</v>
       </c>
-      <c r="AV14" s="18"/>
-      <c r="AW14" s="18"/>
-    </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>100</v>
       </c>
@@ -2591,10 +2573,8 @@
       <c r="AU15" s="2">
         <v>1</v>
       </c>
-      <c r="AV15" s="18"/>
-      <c r="AW15" s="18"/>
-    </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>101</v>
       </c>
@@ -2688,10 +2668,8 @@
       <c r="AU16" s="2">
         <v>1</v>
       </c>
-      <c r="AV16" s="18"/>
-      <c r="AW16" s="18"/>
-    </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>102</v>
       </c>
@@ -2779,10 +2757,8 @@
       <c r="AU17" s="2">
         <v>1</v>
       </c>
-      <c r="AV17" s="18"/>
-      <c r="AW17" s="18"/>
-    </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>103</v>
       </c>
@@ -2860,10 +2836,8 @@
       <c r="AU18" s="2">
         <v>1</v>
       </c>
-      <c r="AV18" s="18"/>
-      <c r="AW18" s="18"/>
-    </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>104</v>
       </c>
@@ -2935,10 +2909,8 @@
       <c r="AU19" s="11">
         <v>1</v>
       </c>
-      <c r="AV19" s="18"/>
-      <c r="AW19" s="18"/>
-    </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>105</v>
       </c>
@@ -3034,10 +3006,8 @@
       <c r="AU20" s="2">
         <v>1</v>
       </c>
-      <c r="AV20" s="18"/>
-      <c r="AW20" s="18"/>
-    </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>106</v>
       </c>
@@ -3133,10 +3103,8 @@
       <c r="AU21" s="2">
         <v>1</v>
       </c>
-      <c r="AV21" s="18"/>
-      <c r="AW21" s="18"/>
-    </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>109</v>
       </c>
@@ -3232,10 +3200,8 @@
       <c r="AU22" s="2">
         <v>1</v>
       </c>
-      <c r="AV22" s="18"/>
-      <c r="AW22" s="18"/>
-    </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>110</v>
       </c>
@@ -3331,10 +3297,8 @@
       <c r="AU23" s="2">
         <v>1</v>
       </c>
-      <c r="AV23" s="18"/>
-      <c r="AW23" s="18"/>
-    </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>111</v>
       </c>
@@ -3430,10 +3394,8 @@
       <c r="AU24" s="2">
         <v>1</v>
       </c>
-      <c r="AV24" s="18"/>
-      <c r="AW24" s="18"/>
-    </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>114</v>
       </c>
@@ -3529,10 +3491,8 @@
       <c r="AU25" s="2">
         <v>1</v>
       </c>
-      <c r="AV25" s="18"/>
-      <c r="AW25" s="18"/>
-    </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>113</v>
       </c>
@@ -3628,10 +3588,8 @@
       <c r="AU26" s="2">
         <v>1</v>
       </c>
-      <c r="AV26" s="18"/>
-      <c r="AW26" s="18"/>
-    </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>112</v>
       </c>
@@ -3727,10 +3685,8 @@
       <c r="AU27" s="2">
         <v>1</v>
       </c>
-      <c r="AV27" s="18"/>
-      <c r="AW27" s="18"/>
-    </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>115</v>
       </c>
@@ -3810,10 +3766,8 @@
       <c r="AU28" s="3">
         <v>1</v>
       </c>
-      <c r="AV28" s="18"/>
-      <c r="AW28" s="18"/>
-    </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>116</v>
       </c>
@@ -3899,10 +3853,8 @@
       <c r="AU29" s="2">
         <v>1</v>
       </c>
-      <c r="AV29" s="18"/>
-      <c r="AW29" s="18"/>
-    </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>117</v>
       </c>
@@ -3996,10 +3948,8 @@
       <c r="AU30" s="2">
         <v>1</v>
       </c>
-      <c r="AV30" s="18"/>
-      <c r="AW30" s="18"/>
-    </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>118</v>
       </c>
@@ -4087,10 +4037,8 @@
       <c r="AU31" s="2">
         <v>1</v>
       </c>
-      <c r="AV31" s="18"/>
-      <c r="AW31" s="18"/>
-    </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>119</v>
       </c>
@@ -4168,10 +4116,8 @@
       <c r="AU32" s="2">
         <v>1</v>
       </c>
-      <c r="AV32" s="18"/>
-      <c r="AW32" s="18"/>
-    </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>120</v>
       </c>
@@ -4243,10 +4189,8 @@
       <c r="AU33" s="11">
         <v>1</v>
       </c>
-      <c r="AV33" s="18"/>
-      <c r="AW33" s="18"/>
-    </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>121</v>
       </c>
@@ -4342,10 +4286,8 @@
       <c r="AU34" s="2">
         <v>1</v>
       </c>
-      <c r="AV34" s="18"/>
-      <c r="AW34" s="18"/>
-    </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>122</v>
       </c>
@@ -4441,8 +4383,6 @@
       <c r="AU35" s="2">
         <v>1</v>
       </c>
-      <c r="AV35" s="18"/>
-      <c r="AW35" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
